--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syntel.PHX440G3-28160R\Documents\CaseS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syntel.PHX440G3-282GXS\Documents\GitHub\CaseStudyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>First_Name</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Franklin Berry</t>
+  </si>
+  <si>
+    <t>Times_Changed</t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +648,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>

--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syntel.PHX440G3-282GXS\Documents\GitHub\CaseStudyProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syntel.PHX440G3-28160R\Documents\GitHub\CaseStudyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>First_Name</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Times_Changed</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,6 +707,9 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syntel.PHX440G3-28160R\Documents\GitHub\CaseStudyProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syntel.PHX440G3-282GXS\Documents\GitHub\CaseStudyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>First_Name</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>Times_Changed</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -512,7 +509,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,9 +704,6 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>First_Name</t>
   </si>
@@ -35,18 +35,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>PW</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Customer Locations</t>
-  </si>
-  <si>
-    <t>L_ID(PK)</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -65,12 +53,6 @@
     <t>Card_number</t>
   </si>
   <si>
-    <t>Address Type_ID(FK)</t>
-  </si>
-  <si>
-    <t>Payment Types</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
@@ -83,9 +65,6 @@
     <t>Payment_Name</t>
   </si>
   <si>
-    <t>Payment_Desc</t>
-  </si>
-  <si>
     <t>Orders</t>
   </si>
   <si>
@@ -95,30 +74,18 @@
     <t>Order_date</t>
   </si>
   <si>
-    <t>Order_status_ID(FK)</t>
-  </si>
-  <si>
-    <t>L_ID(FK)</t>
-  </si>
-  <si>
     <t>P_ID(FK)</t>
   </si>
   <si>
     <t>Delivery_date</t>
   </si>
   <si>
-    <t>Location Types</t>
-  </si>
-  <si>
     <t>LT_ID(PK)</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Loc_name</t>
-  </si>
-  <si>
     <t>Meals</t>
   </si>
   <si>
@@ -149,9 +116,6 @@
     <t>PT_ID(FK)</t>
   </si>
   <si>
-    <t>Order Statuses</t>
-  </si>
-  <si>
     <t>OS_ID(PK)</t>
   </si>
   <si>
@@ -180,6 +144,54 @@
   </si>
   <si>
     <t>Times_Changed</t>
+  </si>
+  <si>
+    <t>CL_ID(PK)</t>
+  </si>
+  <si>
+    <t>CL_ID(FK)</t>
+  </si>
+  <si>
+    <t>Customer_Locations</t>
+  </si>
+  <si>
+    <t>Location_Types</t>
+  </si>
+  <si>
+    <t>Payment_Types</t>
+  </si>
+  <si>
+    <t>Order_Status</t>
+  </si>
+  <si>
+    <t>LT_ID(FK)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>home_phone</t>
+  </si>
+  <si>
+    <t>mobile_phone</t>
+  </si>
+  <si>
+    <t>Location_name</t>
+  </si>
+  <si>
+    <t>Payment_Description</t>
+  </si>
+  <si>
+    <t>OS_ID(FK)</t>
+  </si>
+  <si>
+    <t>delivering_points</t>
+  </si>
+  <si>
+    <t>DP_ID(PK)</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -508,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,42 +536,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -567,19 +579,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -587,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,130 +616,158 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>First_Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>P_ID(PK)</t>
   </si>
   <si>
-    <t>Card_number</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Order_date</t>
   </si>
   <si>
-    <t>P_ID(FK)</t>
-  </si>
-  <si>
     <t>Delivery_date</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>Location_name</t>
   </si>
   <si>
-    <t>Payment_Description</t>
-  </si>
-  <si>
     <t>OS_ID(FK)</t>
   </si>
   <si>
@@ -192,6 +183,75 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>customer_profiles</t>
+  </si>
+  <si>
+    <t>CP_ID(PK)</t>
+  </si>
+  <si>
+    <t>meal_of_the_day</t>
+  </si>
+  <si>
+    <t>image_path</t>
+  </si>
+  <si>
+    <t>meal_types</t>
+  </si>
+  <si>
+    <t>MT_ID(PK)</t>
+  </si>
+  <si>
+    <t>MT_ID(FK)</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>Credit_Cards</t>
+  </si>
+  <si>
+    <t>CC_ID(PK)</t>
+  </si>
+  <si>
+    <t>Customers_Credit_Cards</t>
+  </si>
+  <si>
+    <t>CC_ID(FK)</t>
+  </si>
+  <si>
+    <t>C_ID(FK)(PK)</t>
+  </si>
+  <si>
+    <t>CC_ID(FK)(PK)</t>
+  </si>
+  <si>
+    <t>Credit_Card_Details</t>
+  </si>
+  <si>
+    <t>O_ID(FK)(PK)</t>
+  </si>
+  <si>
+    <t>P_ID(FK)(PK)</t>
+  </si>
+  <si>
+    <t>name_on_card</t>
+  </si>
+  <si>
+    <t>card_number</t>
+  </si>
+  <si>
+    <t>card_types</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CT_ID(PK)</t>
+  </si>
+  <si>
+    <t>CT_ID(FK)</t>
   </si>
 </sst>
 </file>
@@ -518,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,240 +594,310 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
+      <c r="C26" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7455" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Definition" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="138">
   <si>
     <t>First_Name</t>
   </si>
@@ -252,13 +253,1076 @@
   </si>
   <si>
     <t>CT_ID(FK)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CL_ID(PK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LT_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PT_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O_ID(PK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LT_ID(FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PT_ID(FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C_ID(FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O_ID(FK)(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OS_ID(FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CL_ID(FK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C_ID(FK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MT_ID(FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OM_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OS_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O_ID(FK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M_ID(FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DP_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CP_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MT_ID(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C_ID(FK)(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CC_ID(FK)(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CC_ID(PK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P_ID(FK)(PK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CT_ID(PK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CC_ID(FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CT_ID(FK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First_Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(50)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Last_name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(50)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(35)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">image_path </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(255)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">meal_of_the_day </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">description </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(350)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quanity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TINYINT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(50)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Street_Address </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(150)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Discount </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SMALL INT CHECK &lt; 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">City </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(50)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">State </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(50)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zip_Code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHAR(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">phone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(15)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VARCHAR(50)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M_ID(PK)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_NUMBER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">last_login </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATETIME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delivery_date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order_on_hold </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOOLEAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Times_Changed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TINYINT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>name_on_card</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">card_number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(16)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Payment_Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(255)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(256)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order_date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Location_name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">City </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR2(150)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">State </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(150)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zip_Code</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CHAR(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mobile_phone  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(15)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">home_phone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(15)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +1334,31 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -580,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,9 +1803,6 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" t="s">
         <v>37</v>
       </c>
@@ -898,6 +1984,329 @@
       </c>
       <c r="C26" t="s">
         <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
   <si>
     <t>First_Name</t>
   </si>
@@ -1315,6 +1315,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>VARCHAR(15)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O_ID(FK) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
     </r>
   </si>
 </sst>
@@ -1996,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,6 +2320,9 @@
       <c r="C25" t="s">
         <v>127</v>
       </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">

--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>First_Name</t>
   </si>
@@ -1333,13 +1333,16 @@
       </rPr>
       <t>INT</t>
     </r>
+  </si>
+  <si>
+    <t>price double</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,6 +1383,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1401,9 +1411,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2013,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,6 +2262,9 @@
       <c r="A17" t="s">
         <v>109</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">

--- a/CaseStudyDatabaseStructure.xlsx
+++ b/CaseStudyDatabaseStructure.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="142">
   <si>
     <t>First_Name</t>
   </si>
@@ -1336,13 +1336,19 @@
   </si>
   <si>
     <t>price double</t>
+  </si>
+  <si>
+    <t>delivery_time</t>
+  </si>
+  <si>
+    <t>Credit_Card_Details (CHANGE NAME)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1390,6 +1396,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1411,10 +1424,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2024,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2047,7 @@
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
     <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
@@ -2170,6 +2184,9 @@
       <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2287,7 +2304,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>72</v>
